--- a/output/handleparm.xlsx
+++ b/output/handleparm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Class</t>
   </si>
@@ -101,27 +101,6 @@
   </si>
   <si>
     <t>性別</t>
-  </si>
-  <si>
-    <t>MMSE</t>
-  </si>
-  <si>
-    <t>波士頓命名(正確+提示後正確)</t>
-  </si>
-  <si>
-    <t>高血壓</t>
-  </si>
-  <si>
-    <t>握力右</t>
-  </si>
-  <si>
-    <t>神經系統疾病</t>
-  </si>
-  <si>
-    <t>TUG_MidTurn_c</t>
-  </si>
-  <si>
-    <t>speed(m/s)</t>
   </si>
 </sst>
 </file>
@@ -479,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK84"/>
+  <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,29 +552,8 @@
       <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -686,29 +644,8 @@
       <c r="AD2">
         <v>1</v>
       </c>
-      <c r="AE2">
-        <v>24</v>
-      </c>
-      <c r="AF2">
-        <v>25</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>32</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>1.9</v>
-      </c>
-      <c r="AK2">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -799,29 +736,8 @@
       <c r="AD3">
         <v>1</v>
       </c>
-      <c r="AE3">
-        <v>26</v>
-      </c>
-      <c r="AF3">
-        <v>26</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>31.2</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>2.75</v>
-      </c>
-      <c r="AK3">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -912,29 +828,8 @@
       <c r="AD4">
         <v>2</v>
       </c>
-      <c r="AE4">
-        <v>28</v>
-      </c>
-      <c r="AF4">
-        <v>28</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>9.1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>7.1</v>
-      </c>
-      <c r="AK4">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1025,29 +920,8 @@
       <c r="AD5">
         <v>1</v>
       </c>
-      <c r="AE5">
-        <v>24</v>
-      </c>
-      <c r="AF5">
-        <v>13</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>16.9</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>6.26</v>
-      </c>
-      <c r="AK5">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1138,29 +1012,8 @@
       <c r="AD6">
         <v>1</v>
       </c>
-      <c r="AE6">
-        <v>18</v>
-      </c>
-      <c r="AF6">
-        <v>26</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>13.8</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>3.29</v>
-      </c>
-      <c r="AK6">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1251,29 +1104,8 @@
       <c r="AD7">
         <v>2</v>
       </c>
-      <c r="AE7">
-        <v>29</v>
-      </c>
-      <c r="AF7">
-        <v>29</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>10.8</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>4.3</v>
-      </c>
-      <c r="AK7">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1364,29 +1196,8 @@
       <c r="AD8">
         <v>1</v>
       </c>
-      <c r="AE8">
-        <v>20</v>
-      </c>
-      <c r="AF8">
-        <v>26</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>23.7</v>
-      </c>
-      <c r="AI8">
-        <v>1</v>
-      </c>
-      <c r="AJ8">
-        <v>3.470875</v>
-      </c>
-      <c r="AK8">
-        <v>0.9493750000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1477,29 +1288,8 @@
       <c r="AD9">
         <v>1</v>
       </c>
-      <c r="AE9">
-        <v>23</v>
-      </c>
-      <c r="AF9">
-        <v>29</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AH9">
-        <v>29.5</v>
-      </c>
-      <c r="AI9">
-        <v>1</v>
-      </c>
-      <c r="AJ9">
-        <v>3.9</v>
-      </c>
-      <c r="AK9">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1590,29 +1380,8 @@
       <c r="AD10">
         <v>2</v>
       </c>
-      <c r="AE10">
-        <v>25</v>
-      </c>
-      <c r="AF10">
-        <v>24</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>19.1</v>
-      </c>
-      <c r="AI10">
-        <v>1</v>
-      </c>
-      <c r="AJ10">
-        <v>3.9</v>
-      </c>
-      <c r="AK10">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1703,29 +1472,8 @@
       <c r="AD11">
         <v>2</v>
       </c>
-      <c r="AE11">
-        <v>27</v>
-      </c>
-      <c r="AF11">
-        <v>26</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>7.5</v>
-      </c>
-      <c r="AI11">
-        <v>1</v>
-      </c>
-      <c r="AJ11">
-        <v>4.7</v>
-      </c>
-      <c r="AK11">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37">
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1816,29 +1564,8 @@
       <c r="AD12">
         <v>1</v>
       </c>
-      <c r="AE12">
-        <v>30</v>
-      </c>
-      <c r="AF12">
-        <v>29</v>
-      </c>
-      <c r="AG12">
-        <v>1</v>
-      </c>
-      <c r="AH12">
-        <v>34.6</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>4.3</v>
-      </c>
-      <c r="AK12">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37">
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1929,29 +1656,8 @@
       <c r="AD13">
         <v>1</v>
       </c>
-      <c r="AE13">
-        <v>27</v>
-      </c>
-      <c r="AF13">
-        <v>28</v>
-      </c>
-      <c r="AG13">
-        <v>1</v>
-      </c>
-      <c r="AH13">
-        <v>23</v>
-      </c>
-      <c r="AI13">
-        <v>1</v>
-      </c>
-      <c r="AJ13">
-        <v>2.3</v>
-      </c>
-      <c r="AK13">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37">
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2042,29 +1748,8 @@
       <c r="AD14">
         <v>2</v>
       </c>
-      <c r="AE14">
-        <v>23</v>
-      </c>
-      <c r="AF14">
-        <v>27</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>11</v>
-      </c>
-      <c r="AI14">
-        <v>1</v>
-      </c>
-      <c r="AJ14">
-        <v>3.41</v>
-      </c>
-      <c r="AK14">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37">
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2155,29 +1840,8 @@
       <c r="AD15">
         <v>2</v>
       </c>
-      <c r="AE15">
-        <v>19</v>
-      </c>
-      <c r="AF15">
-        <v>14</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>23.9</v>
-      </c>
-      <c r="AI15">
-        <v>1</v>
-      </c>
-      <c r="AJ15">
-        <v>3.07</v>
-      </c>
-      <c r="AK15">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37">
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2268,29 +1932,8 @@
       <c r="AD16">
         <v>2</v>
       </c>
-      <c r="AE16">
-        <v>30</v>
-      </c>
-      <c r="AF16">
-        <v>30</v>
-      </c>
-      <c r="AG16">
-        <v>1</v>
-      </c>
-      <c r="AH16">
-        <v>13</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>3.5</v>
-      </c>
-      <c r="AK16">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37">
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2381,29 +2024,8 @@
       <c r="AD17">
         <v>2</v>
       </c>
-      <c r="AE17">
-        <v>22</v>
-      </c>
-      <c r="AF17">
-        <v>27</v>
-      </c>
-      <c r="AG17">
-        <v>1</v>
-      </c>
-      <c r="AH17">
-        <v>19.7</v>
-      </c>
-      <c r="AI17">
-        <v>1</v>
-      </c>
-      <c r="AJ17">
-        <v>5.5</v>
-      </c>
-      <c r="AK17">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37">
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2494,29 +2116,8 @@
       <c r="AD18">
         <v>1</v>
       </c>
-      <c r="AE18">
-        <v>28</v>
-      </c>
-      <c r="AF18">
-        <v>26</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>18.5</v>
-      </c>
-      <c r="AI18">
-        <v>1</v>
-      </c>
-      <c r="AJ18">
-        <v>3.39</v>
-      </c>
-      <c r="AK18">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37">
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2607,29 +2208,8 @@
       <c r="AD19">
         <v>2</v>
       </c>
-      <c r="AE19">
-        <v>25</v>
-      </c>
-      <c r="AF19">
-        <v>27</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>26.2</v>
-      </c>
-      <c r="AI19">
-        <v>1</v>
-      </c>
-      <c r="AJ19">
-        <v>3.99</v>
-      </c>
-      <c r="AK19">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37">
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2720,29 +2300,8 @@
       <c r="AD20">
         <v>2</v>
       </c>
-      <c r="AE20">
-        <v>19</v>
-      </c>
-      <c r="AF20">
-        <v>19</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>12.4</v>
-      </c>
-      <c r="AI20">
-        <v>1</v>
-      </c>
-      <c r="AJ20">
-        <v>3.27</v>
-      </c>
-      <c r="AK20">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37">
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2833,29 +2392,8 @@
       <c r="AD21">
         <v>1</v>
       </c>
-      <c r="AE21">
-        <v>28</v>
-      </c>
-      <c r="AF21">
-        <v>30</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>18.8</v>
-      </c>
-      <c r="AI21">
-        <v>1</v>
-      </c>
-      <c r="AJ21">
-        <v>2.7</v>
-      </c>
-      <c r="AK21">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37">
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2946,29 +2484,8 @@
       <c r="AD22">
         <v>2</v>
       </c>
-      <c r="AE22">
-        <v>25</v>
-      </c>
-      <c r="AF22">
-        <v>25</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>15.1</v>
-      </c>
-      <c r="AI22">
-        <v>1</v>
-      </c>
-      <c r="AJ22">
-        <v>3.81</v>
-      </c>
-      <c r="AK22">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37">
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3059,29 +2576,8 @@
       <c r="AD23">
         <v>2</v>
       </c>
-      <c r="AE23">
-        <v>25</v>
-      </c>
-      <c r="AF23">
-        <v>18</v>
-      </c>
-      <c r="AG23">
-        <v>1</v>
-      </c>
-      <c r="AH23">
-        <v>23.1</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>5.83</v>
-      </c>
-      <c r="AK23">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37">
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3172,29 +2668,8 @@
       <c r="AD24">
         <v>2</v>
       </c>
-      <c r="AE24">
-        <v>20</v>
-      </c>
-      <c r="AF24">
-        <v>24</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
-      </c>
-      <c r="AH24">
-        <v>25</v>
-      </c>
-      <c r="AI24">
-        <v>1</v>
-      </c>
-      <c r="AJ24">
-        <v>3.19</v>
-      </c>
-      <c r="AK24">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37">
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3285,29 +2760,8 @@
       <c r="AD25">
         <v>2</v>
       </c>
-      <c r="AE25">
-        <v>28</v>
-      </c>
-      <c r="AF25">
-        <v>26</v>
-      </c>
-      <c r="AG25">
-        <v>1</v>
-      </c>
-      <c r="AH25">
-        <v>13</v>
-      </c>
-      <c r="AI25">
-        <v>1</v>
-      </c>
-      <c r="AJ25">
-        <v>3.1</v>
-      </c>
-      <c r="AK25">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37">
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3398,29 +2852,8 @@
       <c r="AD26">
         <v>2</v>
       </c>
-      <c r="AE26">
-        <v>23</v>
-      </c>
-      <c r="AF26">
-        <v>29</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>21</v>
-      </c>
-      <c r="AI26">
-        <v>1</v>
-      </c>
-      <c r="AJ26">
-        <v>2.49</v>
-      </c>
-      <c r="AK26">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37">
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3511,29 +2944,8 @@
       <c r="AD27">
         <v>2</v>
       </c>
-      <c r="AE27">
-        <v>28</v>
-      </c>
-      <c r="AF27">
-        <v>28</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>13</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>2.43</v>
-      </c>
-      <c r="AK27">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37">
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3624,29 +3036,8 @@
       <c r="AD28">
         <v>1</v>
       </c>
-      <c r="AE28">
-        <v>29</v>
-      </c>
-      <c r="AF28">
-        <v>29</v>
-      </c>
-      <c r="AG28">
-        <v>1</v>
-      </c>
-      <c r="AH28">
-        <v>33</v>
-      </c>
-      <c r="AI28">
-        <v>1</v>
-      </c>
-      <c r="AJ28">
-        <v>2.55</v>
-      </c>
-      <c r="AK28">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37">
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3737,29 +3128,8 @@
       <c r="AD29">
         <v>1</v>
       </c>
-      <c r="AE29">
-        <v>27</v>
-      </c>
-      <c r="AF29">
-        <v>26</v>
-      </c>
-      <c r="AG29">
-        <v>1</v>
-      </c>
-      <c r="AH29">
-        <v>26.5</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>1.9</v>
-      </c>
-      <c r="AK29">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37">
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3850,29 +3220,8 @@
       <c r="AD30">
         <v>1</v>
       </c>
-      <c r="AE30">
-        <v>22</v>
-      </c>
-      <c r="AF30">
-        <v>27</v>
-      </c>
-      <c r="AG30">
-        <v>1</v>
-      </c>
-      <c r="AH30">
-        <v>36.3</v>
-      </c>
-      <c r="AI30">
-        <v>1</v>
-      </c>
-      <c r="AJ30">
-        <v>2.37</v>
-      </c>
-      <c r="AK30">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37">
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3963,29 +3312,8 @@
       <c r="AD31">
         <v>1</v>
       </c>
-      <c r="AE31">
-        <v>27</v>
-      </c>
-      <c r="AF31">
-        <v>29</v>
-      </c>
-      <c r="AG31">
-        <v>1</v>
-      </c>
-      <c r="AH31">
-        <v>46.3</v>
-      </c>
-      <c r="AI31">
-        <v>1</v>
-      </c>
-      <c r="AJ31">
-        <v>2.3</v>
-      </c>
-      <c r="AK31">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37">
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4076,29 +3404,8 @@
       <c r="AD32">
         <v>1</v>
       </c>
-      <c r="AE32">
-        <v>25</v>
-      </c>
-      <c r="AF32">
-        <v>21</v>
-      </c>
-      <c r="AG32">
-        <v>1</v>
-      </c>
-      <c r="AH32">
-        <v>31.4</v>
-      </c>
-      <c r="AI32">
-        <v>1</v>
-      </c>
-      <c r="AJ32">
-        <v>3.1</v>
-      </c>
-      <c r="AK32">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37">
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4189,29 +3496,8 @@
       <c r="AD33">
         <v>2</v>
       </c>
-      <c r="AE33">
-        <v>29</v>
-      </c>
-      <c r="AF33">
-        <v>29</v>
-      </c>
-      <c r="AG33">
-        <v>1</v>
-      </c>
-      <c r="AH33">
-        <v>23.4</v>
-      </c>
-      <c r="AI33">
-        <v>1</v>
-      </c>
-      <c r="AJ33">
-        <v>3.03</v>
-      </c>
-      <c r="AK33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37">
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4302,29 +3588,8 @@
       <c r="AD34">
         <v>1</v>
       </c>
-      <c r="AE34">
-        <v>27</v>
-      </c>
-      <c r="AF34">
-        <v>28</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>33.2</v>
-      </c>
-      <c r="AI34">
-        <v>1</v>
-      </c>
-      <c r="AJ34">
-        <v>2.3</v>
-      </c>
-      <c r="AK34">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37">
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4415,29 +3680,8 @@
       <c r="AD35">
         <v>2</v>
       </c>
-      <c r="AE35">
-        <v>24</v>
-      </c>
-      <c r="AF35">
-        <v>22</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>18.1</v>
-      </c>
-      <c r="AI35">
-        <v>1</v>
-      </c>
-      <c r="AJ35">
-        <v>3.5</v>
-      </c>
-      <c r="AK35">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37">
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4528,29 +3772,8 @@
       <c r="AD36">
         <v>1</v>
       </c>
-      <c r="AE36">
-        <v>19</v>
-      </c>
-      <c r="AF36">
-        <v>12</v>
-      </c>
-      <c r="AG36">
-        <v>1</v>
-      </c>
-      <c r="AH36">
-        <v>20.7</v>
-      </c>
-      <c r="AI36">
-        <v>1</v>
-      </c>
-      <c r="AJ36">
-        <v>5.1</v>
-      </c>
-      <c r="AK36">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37">
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4641,29 +3864,8 @@
       <c r="AD37">
         <v>1</v>
       </c>
-      <c r="AE37">
-        <v>27</v>
-      </c>
-      <c r="AF37">
-        <v>29</v>
-      </c>
-      <c r="AG37">
-        <v>1</v>
-      </c>
-      <c r="AH37">
-        <v>37.4</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-      <c r="AJ37">
-        <v>2.29</v>
-      </c>
-      <c r="AK37">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37">
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4754,29 +3956,8 @@
       <c r="AD38">
         <v>2</v>
       </c>
-      <c r="AE38">
-        <v>23</v>
-      </c>
-      <c r="AF38">
-        <v>22</v>
-      </c>
-      <c r="AG38">
-        <v>1</v>
-      </c>
-      <c r="AH38">
-        <v>17.8</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>3.470875</v>
-      </c>
-      <c r="AK38">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:37">
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4867,29 +4048,8 @@
       <c r="AD39">
         <v>1</v>
       </c>
-      <c r="AE39">
-        <v>25</v>
-      </c>
-      <c r="AF39">
-        <v>12</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>23.8</v>
-      </c>
-      <c r="AI39">
-        <v>1</v>
-      </c>
-      <c r="AJ39">
-        <v>2.23</v>
-      </c>
-      <c r="AK39">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37">
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4980,29 +4140,8 @@
       <c r="AD40">
         <v>2</v>
       </c>
-      <c r="AE40">
-        <v>28</v>
-      </c>
-      <c r="AF40">
-        <v>28</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>11.6</v>
-      </c>
-      <c r="AI40">
-        <v>1</v>
-      </c>
-      <c r="AJ40">
-        <v>2.7</v>
-      </c>
-      <c r="AK40">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37">
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5093,29 +4232,8 @@
       <c r="AD41">
         <v>2</v>
       </c>
-      <c r="AE41">
-        <v>28</v>
-      </c>
-      <c r="AF41">
-        <v>24</v>
-      </c>
-      <c r="AG41">
-        <v>1</v>
-      </c>
-      <c r="AH41">
-        <v>14.5</v>
-      </c>
-      <c r="AI41">
-        <v>1</v>
-      </c>
-      <c r="AJ41">
-        <v>3.4</v>
-      </c>
-      <c r="AK41">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37">
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5206,29 +4324,8 @@
       <c r="AD42">
         <v>2</v>
       </c>
-      <c r="AE42">
-        <v>29</v>
-      </c>
-      <c r="AF42">
-        <v>27</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>8.9</v>
-      </c>
-      <c r="AI42">
-        <v>1</v>
-      </c>
-      <c r="AJ42">
-        <v>2.94</v>
-      </c>
-      <c r="AK42">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37">
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5319,29 +4416,8 @@
       <c r="AD43">
         <v>2</v>
       </c>
-      <c r="AE43">
-        <v>30</v>
-      </c>
-      <c r="AF43">
-        <v>30</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>25.9</v>
-      </c>
-      <c r="AI43">
-        <v>1</v>
-      </c>
-      <c r="AJ43">
-        <v>1.1</v>
-      </c>
-      <c r="AK43">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37">
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5432,29 +4508,8 @@
       <c r="AD44">
         <v>1</v>
       </c>
-      <c r="AE44">
-        <v>29</v>
-      </c>
-      <c r="AF44">
-        <v>30</v>
-      </c>
-      <c r="AG44">
-        <v>1</v>
-      </c>
-      <c r="AH44">
-        <v>26.1</v>
-      </c>
-      <c r="AI44">
-        <v>1</v>
-      </c>
-      <c r="AJ44">
-        <v>1.61</v>
-      </c>
-      <c r="AK44">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37">
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5545,29 +4600,8 @@
       <c r="AD45">
         <v>1</v>
       </c>
-      <c r="AE45">
-        <v>28</v>
-      </c>
-      <c r="AF45">
-        <v>30</v>
-      </c>
-      <c r="AG45">
-        <v>1</v>
-      </c>
-      <c r="AH45">
-        <v>23.2</v>
-      </c>
-      <c r="AI45">
-        <v>1</v>
-      </c>
-      <c r="AJ45">
-        <v>6.65</v>
-      </c>
-      <c r="AK45">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:37">
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5658,29 +4692,8 @@
       <c r="AD46">
         <v>1</v>
       </c>
-      <c r="AE46">
-        <v>20</v>
-      </c>
-      <c r="AF46">
-        <v>12</v>
-      </c>
-      <c r="AG46">
-        <v>1</v>
-      </c>
-      <c r="AH46">
-        <v>20.5</v>
-      </c>
-      <c r="AI46">
-        <v>1</v>
-      </c>
-      <c r="AJ46">
-        <v>5.1</v>
-      </c>
-      <c r="AK46">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37">
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5771,29 +4784,8 @@
       <c r="AD47">
         <v>2</v>
       </c>
-      <c r="AE47">
-        <v>13</v>
-      </c>
-      <c r="AF47">
-        <v>14</v>
-      </c>
-      <c r="AG47">
-        <v>1</v>
-      </c>
-      <c r="AH47">
-        <v>13.8</v>
-      </c>
-      <c r="AI47">
-        <v>1</v>
-      </c>
-      <c r="AJ47">
-        <v>3.37</v>
-      </c>
-      <c r="AK47">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37">
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5884,29 +4876,8 @@
       <c r="AD48">
         <v>1</v>
       </c>
-      <c r="AE48">
-        <v>14</v>
-      </c>
-      <c r="AF48">
-        <v>10</v>
-      </c>
-      <c r="AG48">
-        <v>1</v>
-      </c>
-      <c r="AH48">
-        <v>9.6</v>
-      </c>
-      <c r="AI48">
-        <v>1</v>
-      </c>
-      <c r="AJ48">
-        <v>4.3</v>
-      </c>
-      <c r="AK48">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:37">
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5997,29 +4968,8 @@
       <c r="AD49">
         <v>2</v>
       </c>
-      <c r="AE49">
-        <v>12</v>
-      </c>
-      <c r="AF49">
-        <v>15</v>
-      </c>
-      <c r="AG49">
-        <v>1</v>
-      </c>
-      <c r="AH49">
-        <v>14.4</v>
-      </c>
-      <c r="AI49">
-        <v>1</v>
-      </c>
-      <c r="AJ49">
-        <v>7.25</v>
-      </c>
-      <c r="AK49">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:37">
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6110,29 +5060,8 @@
       <c r="AD50">
         <v>2</v>
       </c>
-      <c r="AE50">
-        <v>28</v>
-      </c>
-      <c r="AF50">
-        <v>30</v>
-      </c>
-      <c r="AG50">
-        <v>1</v>
-      </c>
-      <c r="AH50">
-        <v>24.8</v>
-      </c>
-      <c r="AI50">
-        <v>1</v>
-      </c>
-      <c r="AJ50">
-        <v>2.07</v>
-      </c>
-      <c r="AK50">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37">
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6223,29 +5152,8 @@
       <c r="AD51">
         <v>1</v>
       </c>
-      <c r="AE51">
-        <v>30</v>
-      </c>
-      <c r="AF51">
-        <v>29</v>
-      </c>
-      <c r="AG51">
-        <v>1</v>
-      </c>
-      <c r="AH51">
-        <v>37.4</v>
-      </c>
-      <c r="AI51">
-        <v>1</v>
-      </c>
-      <c r="AJ51">
-        <v>1.9</v>
-      </c>
-      <c r="AK51">
-        <v>0.9493750000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37">
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6336,29 +5244,8 @@
       <c r="AD52">
         <v>2</v>
       </c>
-      <c r="AE52">
-        <v>20</v>
-      </c>
-      <c r="AF52">
-        <v>19</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>14.1</v>
-      </c>
-      <c r="AI52">
-        <v>1</v>
-      </c>
-      <c r="AJ52">
-        <v>4.7</v>
-      </c>
-      <c r="AK52">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:37">
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6449,29 +5336,8 @@
       <c r="AD53">
         <v>2</v>
       </c>
-      <c r="AE53">
-        <v>30</v>
-      </c>
-      <c r="AF53">
-        <v>28</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>16.6</v>
-      </c>
-      <c r="AI53">
-        <v>1</v>
-      </c>
-      <c r="AJ53">
-        <v>4.29</v>
-      </c>
-      <c r="AK53">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:37">
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6562,29 +5428,8 @@
       <c r="AD54">
         <v>1</v>
       </c>
-      <c r="AE54">
-        <v>16</v>
-      </c>
-      <c r="AF54">
-        <v>7</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>31.8</v>
-      </c>
-      <c r="AI54">
-        <v>1</v>
-      </c>
-      <c r="AJ54">
-        <v>3.91</v>
-      </c>
-      <c r="AK54">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:37">
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6675,29 +5520,8 @@
       <c r="AD55">
         <v>2</v>
       </c>
-      <c r="AE55">
-        <v>23</v>
-      </c>
-      <c r="AF55">
-        <v>19</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>25.9</v>
-      </c>
-      <c r="AI55">
-        <v>1</v>
-      </c>
-      <c r="AJ55">
-        <v>3.09</v>
-      </c>
-      <c r="AK55">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:37">
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6788,29 +5612,8 @@
       <c r="AD56">
         <v>1</v>
       </c>
-      <c r="AE56">
-        <v>27</v>
-      </c>
-      <c r="AF56">
-        <v>17</v>
-      </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56">
-        <v>12.9</v>
-      </c>
-      <c r="AI56">
-        <v>0</v>
-      </c>
-      <c r="AJ56">
-        <v>5.07</v>
-      </c>
-      <c r="AK56">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:37">
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6901,29 +5704,8 @@
       <c r="AD57">
         <v>2</v>
       </c>
-      <c r="AE57">
-        <v>26</v>
-      </c>
-      <c r="AF57">
-        <v>23</v>
-      </c>
-      <c r="AG57">
-        <v>1</v>
-      </c>
-      <c r="AH57">
-        <v>17.9</v>
-      </c>
-      <c r="AI57">
-        <v>1</v>
-      </c>
-      <c r="AJ57">
-        <v>2.62</v>
-      </c>
-      <c r="AK57">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:37">
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7014,29 +5796,8 @@
       <c r="AD58">
         <v>2</v>
       </c>
-      <c r="AE58">
-        <v>27</v>
-      </c>
-      <c r="AF58">
-        <v>28</v>
-      </c>
-      <c r="AG58">
-        <v>1</v>
-      </c>
-      <c r="AH58">
-        <v>27.4</v>
-      </c>
-      <c r="AI58">
-        <v>1</v>
-      </c>
-      <c r="AJ58">
-        <v>2.3</v>
-      </c>
-      <c r="AK58">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:37">
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7127,29 +5888,8 @@
       <c r="AD59">
         <v>2</v>
       </c>
-      <c r="AE59">
-        <v>21</v>
-      </c>
-      <c r="AF59">
-        <v>22</v>
-      </c>
-      <c r="AG59">
-        <v>1</v>
-      </c>
-      <c r="AH59">
-        <v>25.3</v>
-      </c>
-      <c r="AI59">
-        <v>1</v>
-      </c>
-      <c r="AJ59">
-        <v>1.9</v>
-      </c>
-      <c r="AK59">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:37">
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7240,29 +5980,8 @@
       <c r="AD60">
         <v>2</v>
       </c>
-      <c r="AE60">
-        <v>14</v>
-      </c>
-      <c r="AF60">
-        <v>11</v>
-      </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60">
-        <v>16.1</v>
-      </c>
-      <c r="AI60">
-        <v>1</v>
-      </c>
-      <c r="AJ60">
-        <v>3.470875</v>
-      </c>
-      <c r="AK60">
-        <v>0.9493750000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:37">
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7353,29 +6072,8 @@
       <c r="AD61">
         <v>2</v>
       </c>
-      <c r="AE61">
-        <v>21</v>
-      </c>
-      <c r="AF61">
-        <v>15</v>
-      </c>
-      <c r="AG61">
-        <v>1</v>
-      </c>
-      <c r="AH61">
-        <v>18.3</v>
-      </c>
-      <c r="AI61">
-        <v>1</v>
-      </c>
-      <c r="AJ61">
-        <v>2.96</v>
-      </c>
-      <c r="AK61">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:37">
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7466,29 +6164,8 @@
       <c r="AD62">
         <v>1</v>
       </c>
-      <c r="AE62">
-        <v>29</v>
-      </c>
-      <c r="AF62">
-        <v>29</v>
-      </c>
-      <c r="AG62">
-        <v>1</v>
-      </c>
-      <c r="AH62">
-        <v>34.8</v>
-      </c>
-      <c r="AI62">
-        <v>1</v>
-      </c>
-      <c r="AJ62">
-        <v>2.42</v>
-      </c>
-      <c r="AK62">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:37">
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7579,29 +6256,8 @@
       <c r="AD63">
         <v>2</v>
       </c>
-      <c r="AE63">
-        <v>29</v>
-      </c>
-      <c r="AF63">
-        <v>27</v>
-      </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-      <c r="AH63">
-        <v>23.3</v>
-      </c>
-      <c r="AI63">
-        <v>1</v>
-      </c>
-      <c r="AJ63">
-        <v>4.43</v>
-      </c>
-      <c r="AK63">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:37">
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7692,29 +6348,8 @@
       <c r="AD64">
         <v>2</v>
       </c>
-      <c r="AE64">
-        <v>17</v>
-      </c>
-      <c r="AF64">
-        <v>19</v>
-      </c>
-      <c r="AG64">
-        <v>1</v>
-      </c>
-      <c r="AH64">
-        <v>11.7</v>
-      </c>
-      <c r="AI64">
-        <v>1</v>
-      </c>
-      <c r="AJ64">
-        <v>2.75</v>
-      </c>
-      <c r="AK64">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:37">
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7805,29 +6440,8 @@
       <c r="AD65">
         <v>2</v>
       </c>
-      <c r="AE65">
-        <v>27</v>
-      </c>
-      <c r="AF65">
-        <v>26</v>
-      </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
-      <c r="AH65">
-        <v>18.9</v>
-      </c>
-      <c r="AI65">
-        <v>1</v>
-      </c>
-      <c r="AJ65">
-        <v>3.5</v>
-      </c>
-      <c r="AK65">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:37">
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7918,29 +6532,8 @@
       <c r="AD66">
         <v>2</v>
       </c>
-      <c r="AE66">
-        <v>28</v>
-      </c>
-      <c r="AF66">
-        <v>29</v>
-      </c>
-      <c r="AG66">
-        <v>1</v>
-      </c>
-      <c r="AH66">
-        <v>19.2</v>
-      </c>
-      <c r="AI66">
-        <v>0</v>
-      </c>
-      <c r="AJ66">
-        <v>2.7</v>
-      </c>
-      <c r="AK66">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:37">
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -8031,29 +6624,8 @@
       <c r="AD67">
         <v>1</v>
       </c>
-      <c r="AE67">
-        <v>30</v>
-      </c>
-      <c r="AF67">
-        <v>29</v>
-      </c>
-      <c r="AG67">
-        <v>1</v>
-      </c>
-      <c r="AH67">
-        <v>24.8</v>
-      </c>
-      <c r="AI67">
-        <v>1</v>
-      </c>
-      <c r="AJ67">
-        <v>3.22</v>
-      </c>
-      <c r="AK67">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:37">
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -8144,29 +6716,8 @@
       <c r="AD68">
         <v>2</v>
       </c>
-      <c r="AE68">
-        <v>14</v>
-      </c>
-      <c r="AF68">
-        <v>15</v>
-      </c>
-      <c r="AG68">
-        <v>0</v>
-      </c>
-      <c r="AH68">
-        <v>12.2</v>
-      </c>
-      <c r="AI68">
-        <v>1</v>
-      </c>
-      <c r="AJ68">
-        <v>4.3</v>
-      </c>
-      <c r="AK68">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:37">
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -8257,29 +6808,8 @@
       <c r="AD69">
         <v>1</v>
       </c>
-      <c r="AE69">
-        <v>25</v>
-      </c>
-      <c r="AF69">
-        <v>23</v>
-      </c>
-      <c r="AG69">
-        <v>1</v>
-      </c>
-      <c r="AH69">
-        <v>23.1</v>
-      </c>
-      <c r="AI69">
-        <v>0</v>
-      </c>
-      <c r="AJ69">
-        <v>3.5</v>
-      </c>
-      <c r="AK69">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:37">
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8370,29 +6900,8 @@
       <c r="AD70">
         <v>2</v>
       </c>
-      <c r="AE70">
-        <v>21</v>
-      </c>
-      <c r="AF70">
-        <v>13</v>
-      </c>
-      <c r="AG70">
-        <v>1</v>
-      </c>
-      <c r="AH70">
-        <v>6.9</v>
-      </c>
-      <c r="AI70">
-        <v>1</v>
-      </c>
-      <c r="AJ70">
-        <v>3.5</v>
-      </c>
-      <c r="AK70">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:37">
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8483,29 +6992,8 @@
       <c r="AD71">
         <v>2</v>
       </c>
-      <c r="AE71">
-        <v>28</v>
-      </c>
-      <c r="AF71">
-        <v>25</v>
-      </c>
-      <c r="AG71">
-        <v>0</v>
-      </c>
-      <c r="AH71">
-        <v>12.3</v>
-      </c>
-      <c r="AI71">
-        <v>1</v>
-      </c>
-      <c r="AJ71">
-        <v>4.3</v>
-      </c>
-      <c r="AK71">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:37">
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8596,29 +7084,8 @@
       <c r="AD72">
         <v>1</v>
       </c>
-      <c r="AE72">
-        <v>28</v>
-      </c>
-      <c r="AF72">
-        <v>25</v>
-      </c>
-      <c r="AG72">
-        <v>1</v>
-      </c>
-      <c r="AH72">
-        <v>23.1</v>
-      </c>
-      <c r="AI72">
-        <v>1</v>
-      </c>
-      <c r="AJ72">
-        <v>5.06</v>
-      </c>
-      <c r="AK72">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:37">
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8709,29 +7176,8 @@
       <c r="AD73">
         <v>1</v>
       </c>
-      <c r="AE73">
-        <v>22</v>
-      </c>
-      <c r="AF73">
-        <v>28</v>
-      </c>
-      <c r="AG73">
-        <v>0</v>
-      </c>
-      <c r="AH73">
-        <v>22.9</v>
-      </c>
-      <c r="AI73">
-        <v>1</v>
-      </c>
-      <c r="AJ73">
-        <v>3.1</v>
-      </c>
-      <c r="AK73">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:37">
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8822,29 +7268,8 @@
       <c r="AD74">
         <v>1</v>
       </c>
-      <c r="AE74">
-        <v>27</v>
-      </c>
-      <c r="AF74">
-        <v>30</v>
-      </c>
-      <c r="AG74">
-        <v>1</v>
-      </c>
-      <c r="AH74">
-        <v>28.1</v>
-      </c>
-      <c r="AI74">
-        <v>1</v>
-      </c>
-      <c r="AJ74">
-        <v>3.61</v>
-      </c>
-      <c r="AK74">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="75" spans="1:37">
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8935,29 +7360,8 @@
       <c r="AD75">
         <v>1</v>
       </c>
-      <c r="AE75">
-        <v>27</v>
-      </c>
-      <c r="AF75">
-        <v>29</v>
-      </c>
-      <c r="AG75">
-        <v>1</v>
-      </c>
-      <c r="AH75">
-        <v>28.1</v>
-      </c>
-      <c r="AI75">
-        <v>1</v>
-      </c>
-      <c r="AJ75">
-        <v>1.9</v>
-      </c>
-      <c r="AK75">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="76" spans="1:37">
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -9048,29 +7452,8 @@
       <c r="AD76">
         <v>2</v>
       </c>
-      <c r="AE76">
-        <v>10</v>
-      </c>
-      <c r="AF76">
-        <v>21</v>
-      </c>
-      <c r="AG76">
-        <v>1</v>
-      </c>
-      <c r="AH76">
-        <v>16.1</v>
-      </c>
-      <c r="AI76">
-        <v>1</v>
-      </c>
-      <c r="AJ76">
-        <v>4.3</v>
-      </c>
-      <c r="AK76">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:37">
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -9161,29 +7544,8 @@
       <c r="AD77">
         <v>2</v>
       </c>
-      <c r="AE77">
-        <v>4</v>
-      </c>
-      <c r="AF77">
-        <v>16</v>
-      </c>
-      <c r="AG77">
-        <v>0</v>
-      </c>
-      <c r="AH77">
-        <v>17.4</v>
-      </c>
-      <c r="AI77">
-        <v>1</v>
-      </c>
-      <c r="AJ77">
-        <v>4.3</v>
-      </c>
-      <c r="AK77">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:37">
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -9274,29 +7636,8 @@
       <c r="AD78">
         <v>2</v>
       </c>
-      <c r="AE78">
-        <v>26</v>
-      </c>
-      <c r="AF78">
-        <v>25</v>
-      </c>
-      <c r="AG78">
-        <v>0</v>
-      </c>
-      <c r="AH78">
-        <v>17.1</v>
-      </c>
-      <c r="AI78">
-        <v>1</v>
-      </c>
-      <c r="AJ78">
-        <v>3.78</v>
-      </c>
-      <c r="AK78">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:37">
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -9387,29 +7728,8 @@
       <c r="AD79">
         <v>1</v>
       </c>
-      <c r="AE79">
-        <v>30</v>
-      </c>
-      <c r="AF79">
-        <v>25</v>
-      </c>
-      <c r="AG79">
-        <v>1</v>
-      </c>
-      <c r="AH79">
-        <v>32.7</v>
-      </c>
-      <c r="AI79">
-        <v>1</v>
-      </c>
-      <c r="AJ79">
-        <v>2.82</v>
-      </c>
-      <c r="AK79">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:37">
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -9500,29 +7820,8 @@
       <c r="AD80">
         <v>1</v>
       </c>
-      <c r="AE80">
-        <v>24</v>
-      </c>
-      <c r="AF80">
-        <v>22</v>
-      </c>
-      <c r="AG80">
-        <v>0</v>
-      </c>
-      <c r="AH80">
-        <v>27.6</v>
-      </c>
-      <c r="AI80">
-        <v>1</v>
-      </c>
-      <c r="AJ80">
-        <v>2.85</v>
-      </c>
-      <c r="AK80">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:37">
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -9613,29 +7912,8 @@
       <c r="AD81">
         <v>1</v>
       </c>
-      <c r="AE81">
-        <v>29</v>
-      </c>
-      <c r="AF81">
-        <v>24</v>
-      </c>
-      <c r="AG81">
-        <v>0</v>
-      </c>
-      <c r="AH81">
-        <v>25.8</v>
-      </c>
-      <c r="AI81">
-        <v>1</v>
-      </c>
-      <c r="AJ81">
-        <v>2.7</v>
-      </c>
-      <c r="AK81">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:37">
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -9726,29 +8004,8 @@
       <c r="AD82">
         <v>2</v>
       </c>
-      <c r="AE82">
-        <v>28</v>
-      </c>
-      <c r="AF82">
-        <v>24</v>
-      </c>
-      <c r="AG82">
-        <v>1</v>
-      </c>
-      <c r="AH82">
-        <v>17</v>
-      </c>
-      <c r="AI82">
-        <v>1</v>
-      </c>
-      <c r="AJ82">
-        <v>3.35</v>
-      </c>
-      <c r="AK82">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="83" spans="1:37">
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -9839,29 +8096,8 @@
       <c r="AD83">
         <v>2</v>
       </c>
-      <c r="AE83">
-        <v>21</v>
-      </c>
-      <c r="AF83">
-        <v>23</v>
-      </c>
-      <c r="AG83">
-        <v>0</v>
-      </c>
-      <c r="AH83">
-        <v>18.4</v>
-      </c>
-      <c r="AI83">
-        <v>1</v>
-      </c>
-      <c r="AJ83">
-        <v>3.5</v>
-      </c>
-      <c r="AK83">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="84" spans="1:37">
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -9951,27 +8187,6 @@
       </c>
       <c r="AD84">
         <v>2</v>
-      </c>
-      <c r="AE84">
-        <v>12</v>
-      </c>
-      <c r="AF84">
-        <v>12</v>
-      </c>
-      <c r="AG84">
-        <v>1</v>
-      </c>
-      <c r="AH84">
-        <v>13.5</v>
-      </c>
-      <c r="AI84">
-        <v>1</v>
-      </c>
-      <c r="AJ84">
-        <v>3.5</v>
-      </c>
-      <c r="AK84">
-        <v>0.55</v>
       </c>
     </row>
   </sheetData>
